--- a/Data/Norovirus_by_month_2000_to_2012_reports.xlsx
+++ b/Data/Norovirus_by_month_2000_to_2012_reports.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lsh1603970/Documents/GitHub/serosolver-norovirus-eng-serology-v2/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8AD5474-94DA-6D40-830F-2F72167442C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEE4225-D70B-6E47-9964-B63BAC783BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7220" yWindow="500" windowWidth="33460" windowHeight="19200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32340" yWindow="500" windowWidth="36340" windowHeight="22960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Laboratory reports of norovirus infections in England and Wales by month of report, 2000-2012</t>
   </si>
@@ -106,12 +106,6 @@
     <t>Norovirus year - July - June</t>
   </si>
   <si>
-    <t>jul-dec</t>
-  </si>
-  <si>
-    <t>jan-jun</t>
-  </si>
-  <si>
     <t>https://www.gov.uk/government/publications/norovirus-annual-figures-2000-to-2012</t>
   </si>
   <si>
@@ -122,13 +116,58 @@
   </si>
   <si>
     <t>calendar total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For 2012, use digitizer from here </t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/media/5a801181e5274a2e8ab4dfe9/Norovirus_update_2014_week_27.pdf</t>
+  </si>
+  <si>
+    <t>Figure 3</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>jan-jun 2013</t>
+  </si>
+  <si>
+    <t>jan-jun 2012</t>
+  </si>
+  <si>
+    <t>digi-reports</t>
+  </si>
+  <si>
+    <t>compare above</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>jul-dec that year</t>
+  </si>
+  <si>
+    <t>jan-jun following year</t>
+  </si>
+  <si>
+    <t>jul-dec 2011</t>
+  </si>
+  <si>
+    <t>jul-dec 2012</t>
+  </si>
+  <si>
+    <t>annoyingly these aren't exactly the same, seem to be all reports, maybe duplicates from outbreaks are still included in the digital data..?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,8 +196,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -174,6 +221,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -225,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -246,8 +299,13 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -554,15 +612,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="15" max="15" width="22.5" customWidth="1"/>
+    <col min="16" max="17" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
@@ -630,19 +693,19 @@
         <v>12</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -689,7 +752,7 @@
         <f>SUM(B5:M5)</f>
         <v>1922</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="7">
         <v>2000</v>
       </c>
       <c r="P5" s="8">
@@ -749,7 +812,7 @@
         <f t="shared" ref="N6:N17" si="0">SUM(B6:M6)</f>
         <v>1745</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6" s="7">
         <v>2001</v>
       </c>
       <c r="P6" s="8">
@@ -929,7 +992,7 @@
         <f t="shared" si="0"/>
         <v>3133</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9" s="7">
         <v>2004</v>
       </c>
       <c r="P9" s="8">
@@ -989,7 +1052,7 @@
         <f t="shared" si="0"/>
         <v>2922</v>
       </c>
-      <c r="O10" s="8">
+      <c r="O10" s="7">
         <v>2005</v>
       </c>
       <c r="P10" s="8">
@@ -1169,7 +1232,7 @@
         <f t="shared" si="0"/>
         <v>6828</v>
       </c>
-      <c r="O13" s="8">
+      <c r="O13" s="7">
         <v>2008</v>
       </c>
       <c r="P13" s="8">
@@ -1229,7 +1292,7 @@
         <f t="shared" si="0"/>
         <v>7716</v>
       </c>
-      <c r="O14" s="8">
+      <c r="O14" s="7">
         <v>2009</v>
       </c>
       <c r="P14" s="8">
@@ -1327,22 +1390,22 @@
       <c r="G16" s="2">
         <v>481</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="12">
         <v>345</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="12">
         <v>179</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="12">
         <v>182</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="12">
         <v>292</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="L16" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M16" s="12">
         <v>1027</v>
       </c>
       <c r="N16">
@@ -1352,11 +1415,11 @@
       <c r="O16" s="9">
         <v>2011</v>
       </c>
-      <c r="P16" s="8">
+      <c r="P16" s="11">
         <f>SUM(H16:M16)</f>
         <v>2025</v>
       </c>
-      <c r="Q16" s="8">
+      <c r="Q16" s="11">
         <f>SUM(B17:G17)</f>
         <v>6204</v>
       </c>
@@ -1369,22 +1432,22 @@
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="12">
         <v>1366</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="12">
         <v>1946</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="12">
         <v>1112</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="12">
         <v>1022</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="12">
         <v>758</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="12" t="s">
         <v>15</v>
       </c>
       <c r="H17" s="2">
@@ -1409,7 +1472,7 @@
         <f t="shared" si="0"/>
         <v>8019</v>
       </c>
-      <c r="O17" s="8">
+      <c r="O17" s="7">
         <v>2012</v>
       </c>
       <c r="P17" s="8">
@@ -1417,7 +1480,6 @@
         <v>1815</v>
       </c>
       <c r="Q17" s="8">
-        <f>SUM(B18:G18)</f>
         <v>0</v>
       </c>
       <c r="R17" s="8">
@@ -1443,12 +1505,119 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="10">
+        <v>51</v>
+      </c>
+      <c r="C31" s="10">
+        <v>3322.3438910475302</v>
+      </c>
+      <c r="D31" s="10">
+        <f>C31</f>
+        <v>3322.3438910475302</v>
+      </c>
+      <c r="E31">
+        <f>P16</f>
+        <v>2025</v>
+      </c>
+      <c r="G31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="10">
+        <v>78.017543859649095</v>
+      </c>
+      <c r="C32" s="10">
+        <v>9521.9592605675298</v>
+      </c>
+      <c r="D32" s="10">
+        <f>C32-D31</f>
+        <v>6199.6153695199991</v>
+      </c>
+      <c r="E32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="10">
+        <v>51</v>
+      </c>
+      <c r="C33" s="10">
+        <v>1241.8069782958501</v>
+      </c>
+      <c r="D33" s="10">
+        <f>C33</f>
+        <v>1241.8069782958501</v>
+      </c>
+      <c r="E33">
+        <f>P15</f>
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="10">
+        <v>77.947368421052602</v>
+      </c>
+      <c r="C34" s="10">
+        <v>8918.1286549707602</v>
+      </c>
+      <c r="D34" s="10">
+        <f>C34-C33</f>
+        <v>7676.3216766749101</v>
+      </c>
+      <c r="E34">
+        <f>Q16</f>
+        <v>6204</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Norovirus_by_month_2000_to_2012_reports.xlsx
+++ b/Data/Norovirus_by_month_2000_to_2012_reports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lsh1603970/Documents/GitHub/serosolver-norovirus-eng-serology-v2/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEE4225-D70B-6E47-9964-B63BAC783BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF4CAE4-9566-1743-95CE-F0987B4CA4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32340" yWindow="500" windowWidth="36340" windowHeight="22960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -205,7 +205,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -227,6 +227,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -308,6 +314,8 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -615,7 +623,7 @@
   <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1475,16 +1483,15 @@
       <c r="O17" s="7">
         <v>2012</v>
       </c>
-      <c r="P17" s="8">
-        <f>SUM(H17:M17)</f>
-        <v>1815</v>
-      </c>
-      <c r="Q17" s="8">
-        <v>0</v>
+      <c r="P17" s="13">
+        <v>3322</v>
+      </c>
+      <c r="Q17" s="14">
+        <v>6200</v>
       </c>
       <c r="R17" s="8">
         <f t="shared" si="1"/>
-        <v>1815</v>
+        <v>9522</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
@@ -1552,7 +1559,7 @@
       <c r="C31" s="10">
         <v>3322.3438910475302</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="13">
         <f>C31</f>
         <v>3322.3438910475302</v>
       </c>
@@ -1574,7 +1581,7 @@
       <c r="C32" s="10">
         <v>9521.9592605675298</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="13">
         <f>C32-D31</f>
         <v>6199.6153695199991</v>
       </c>

--- a/Data/Norovirus_by_month_2000_to_2012_reports.xlsx
+++ b/Data/Norovirus_by_month_2000_to_2012_reports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lsh1603970/Documents/GitHub/serosolver-norovirus-eng-serology-v2/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF4CAE4-9566-1743-95CE-F0987B4CA4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703F49C4-20F4-174B-B9BF-AA3D1A48EB21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32340" yWindow="500" windowWidth="36340" windowHeight="22960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
